--- a/data/trans_dic/P55$familiarvive-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P55$familiarvive-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población a la que, al menos, le ayudaun familiar conviviente cuando tiene dificultades en la actividades instrumentales</t>
+          <t>Población a la que, al menos, le ayuda un familiar conviviente cuando tiene dificultades en la actividades instrumentales</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -729,7 +730,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,57</t>
+          <t>0,0; 57,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,12 +740,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 43,12</t>
+          <t>3,68; 40,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,35</t>
+          <t>0,0; 43,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,32 +755,32 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,12</t>
+          <t>0,0; 53,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,37; 39,37</t>
+          <t>7,81; 43,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,23</t>
+          <t>0,0; 28,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,16</t>
+          <t>0,0; 49,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,87</t>
+          <t>0,0; 39,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,87; 31,68</t>
+          <t>8,58; 32,0</t>
         </is>
       </c>
     </row>
@@ -864,7 +865,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,47</t>
+          <t>0,0; 54,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,12 +875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,28</t>
+          <t>0,0; 50,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,36</t>
+          <t>0,0; 27,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,7 +890,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,55</t>
+          <t>0,0; 63,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,27 +900,27 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 31,29</t>
+          <t>2,83; 27,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,0; 54,63</t>
+          <t>6,08; 51,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,51</t>
+          <t>5,32; 46,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,49</t>
+          <t>0,0; 34,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 22,09</t>
+          <t>3,52; 21,56</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,44</t>
+          <t>0,0; 28,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 33,57</t>
+          <t>3,7; 31,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,5; 55,85</t>
+          <t>13,0; 54,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,89; 36,99</t>
+          <t>9,51; 37,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,51</t>
+          <t>0,0; 67,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 37,7</t>
+          <t>5,14; 37,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,93; 59,86</t>
+          <t>7,75; 60,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 26,85</t>
+          <t>6,08; 27,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 33,72</t>
+          <t>4,28; 34,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 29,08</t>
+          <t>5,01; 28,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,86; 48,29</t>
+          <t>16,65; 47,87</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,05; 27,48</t>
+          <t>9,45; 26,35</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,59; 29,28</t>
+          <t>10,91; 28,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,82; 37,36</t>
+          <t>13,91; 37,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,99; 29,72</t>
+          <t>6,86; 28,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 15,85</t>
+          <t>4,54; 16,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,29; 51,32</t>
+          <t>14,09; 52,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 42,9</t>
+          <t>4,59; 42,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,67; 41,95</t>
+          <t>7,92; 41,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,66; 31,19</t>
+          <t>13,77; 31,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,25; 29,49</t>
+          <t>14,39; 30,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,43; 33,32</t>
+          <t>14,28; 32,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,98; 27,84</t>
+          <t>9,56; 27,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,59; 18,31</t>
+          <t>9,11; 18,73</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,15; 41,0</t>
+          <t>5,15; 40,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,2; 30,52</t>
+          <t>6,14; 30,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,8; 21,74</t>
+          <t>3,79; 22,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,77; 19,87</t>
+          <t>3,7; 19,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,68; 38,58</t>
+          <t>7,31; 38,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,06; 43,61</t>
+          <t>22,42; 43,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,15; 43,72</t>
+          <t>16,45; 43,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,03; 25,35</t>
+          <t>13,86; 25,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,19; 32,43</t>
+          <t>9,92; 31,93</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,63; 36,88</t>
+          <t>19,18; 36,59</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,04; 30,23</t>
+          <t>13,02; 30,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,16; 21,45</t>
+          <t>11,93; 20,92</t>
         </is>
       </c>
     </row>
@@ -1444,42 +1445,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,84; 43,06</t>
+          <t>26,2; 42,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,11; 38,92</t>
+          <t>22,88; 39,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,15; 37,11</t>
+          <t>20,1; 36,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,85; 28,1</t>
+          <t>17,68; 28,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,3; 42,39</t>
+          <t>26,59; 42,45</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,11; 38,92</t>
+          <t>22,88; 39,26</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>20,15; 37,11</t>
+          <t>20,1; 36,05</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,47; 27,19</t>
+          <t>17,44; 28,1</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,86; 22,65</t>
+          <t>9,87; 22,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,08; 26,45</t>
+          <t>12,25; 26,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,5; 21,66</t>
+          <t>9,44; 21,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,18; 15,13</t>
+          <t>7,19; 15,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,39; 36,49</t>
+          <t>24,77; 37,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,99; 34,71</t>
+          <t>23,75; 35,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,72; 32,79</t>
+          <t>20,2; 31,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,28; 23,54</t>
+          <t>17,04; 23,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,76; 30,37</t>
+          <t>20,76; 29,66</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>21,2; 29,63</t>
+          <t>21,23; 29,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,21; 27,35</t>
+          <t>18,31; 27,3</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>14,76; 19,87</t>
+          <t>14,97; 19,85</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda un familiar conviviente cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1045</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1849</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2128</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2774</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2128</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1901</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4868</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1634</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>442; 4809</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5879</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3261</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4290</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1082; 5984</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6705</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5777</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5950</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2219; 8273</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1659</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1157</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1887</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1643</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2105</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2083</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1542</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3240</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1887</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3186</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5860</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5047</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5438</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4714</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4432</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5549</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1773</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>389; 3788</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>981; 8249</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>974; 8493</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5971</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1098; 6721</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3155</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4313</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2308</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3049</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4761</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3012</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4107</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6204</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10021</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>7325</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5192</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>905; 7744</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2143; 8992</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2014; 7897</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5650</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>977; 7199</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1264; 9927</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1287; 5850</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1128; 9121</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2175; 12165</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5460; 15693</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4004; 11163</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>13265</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15869</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6135</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>6365</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6815</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4152</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6746</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8312</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>20080</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>20021</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>12881</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>14677</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>7706; 20137</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9427; 25611</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2733; 11558</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3272; 11802</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3300; 12307</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>956; 8827</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2600; 13564</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5340; 12069</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>13530; 28591</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>12653; 29186</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6951; 20118</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>10095; 20755</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2799</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5558</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5366</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2810</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7408</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>26994</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>15266</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17562</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>10207</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>32552</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>20632</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>20372</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>829; 6551</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2214; 11129</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1792; 10502</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1112; 5975</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2660; 13997</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>18737; 36181</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>8721; 23323</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>12918; 23472</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5210; 16763</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>22943; 43753</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>13068; 30354</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>14705; 25786</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>49312</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>43567</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>40419</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>31758</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>49312</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>43567</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>40419</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>31758</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 705</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 778</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>37736; 61129</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>32740; 56183</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>29596; 53092</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>24934; 39826</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>38546; 61541</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>32740; 56183</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>29596; 53092</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>24971; 40226</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>19522</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>26783</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>18647</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>16980</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>70076</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>80897</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>68403</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>64962</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>89598</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>107680</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>87050</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>81941</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>12488; 28367</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>17908; 38132</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>11466; 25897</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>11135; 23644</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>57205; 85990</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>66145; 98715</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>53368; 84426</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>54817; 75595</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>74219; 106044</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>90168; 126812</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>70621; 105279</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>71331; 94607</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P55$familiarvive-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P55$familiarvive-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
